--- a/biology/Botanique/Pterostyrax_hispidus/Pterostyrax_hispidus.xlsx
+++ b/biology/Botanique/Pterostyrax_hispidus/Pterostyrax_hispidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pterostyrax hispidus[2] est une espèce de plantes à fleurs de la famille des Styracacées. C'est un arbre à feuilles caduques originaire du Japon.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pterostyrax hispidus est une espèce de plantes à fleurs de la famille des Styracacées. C'est un arbre à feuilles caduques originaire du Japon.
 (Synonyme : Halesia hispida - signalé par l'index IPNI)
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un petit arbre à feuilles caduques pouvant atteindre 10 m de haut. Cette espèce reste généralement plus petite que les espèces Pterostyrax corymbosus ou Pterostyrax psilophyllus
 Les feuilles, vert clair, sont alternes, simples et ovales de 7 à 22 cm de long sur 4 à 11 de large,  glabres sur le dessus et pubescentes à l'envers, en particulier sur les nervures. Le bord du limbe est en petites dents de scie.
@@ -551,7 +565,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'abord espèce de collections botaniques, cet arbre commence à connaître une utilisation ornementale en France en raison de sa floraison abondante et parfumée.
 </t>
